--- a/stc-util/Geradores de Incoming/MASTERCARD/ChargeBackSegAprMastercard.xlsx
+++ b/stc-util/Geradores de Incoming/MASTERCARD/ChargeBackSegAprMastercard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\Documents\Manuel\Projetos\STC\Geradores de Incoming\MASTERCARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\git\mhj-util\stc-util\Geradores de Incoming\MASTERCARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,25 +554,25 @@
     <t xml:space="preserve">teste segunda apresentacao master mhj                                                               </t>
   </si>
   <si>
-    <t>1912345678901234567</t>
-  </si>
-  <si>
     <t>20190401</t>
   </si>
   <si>
-    <t xml:space="preserve">200003356423       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">300003356422       </t>
-  </si>
-  <si>
     <t>20190505</t>
   </si>
   <si>
-    <t>000000194367</t>
-  </si>
-  <si>
-    <t>0000011</t>
+    <t>000000194384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200003356344       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300003356331       </t>
+  </si>
+  <si>
+    <t>1231234564567897890</t>
+  </si>
+  <si>
+    <t>0000012</t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B15" s="29" t="str">
         <f>B65</f>
-        <v>0000011</v>
+        <v>0000012</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B20" s="34" t="str">
         <f>B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19</f>
-        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190505000001120190505080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
+        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190505000001220190505080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -3520,7 +3520,7 @@
         <v>134</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
@@ -3552,7 +3552,7 @@
         <v>137</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
@@ -3615,7 +3615,7 @@
         <v>144</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
@@ -3647,7 +3647,7 @@
         <v>147</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
@@ -3711,7 +3711,7 @@
         <v>152</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B42" s="72" t="str">
         <f>CONCATENATE(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41)</f>
-        <v xml:space="preserve">010010000000000100000010001000000000000100010012teste segunda apresentacao master mhj                                                               00000002009869860N0000001943672019040100000000000000000000200003356423       300003356422                                                                                                                                                                                                  191234567890123456700mensagem retorno segunda apresentacao           </v>
+        <v xml:space="preserve">010010000000000100000010001000000000000100010012teste segunda apresentacao master mhj                                                               00000002009869860N0000001943842019040100000000000000000000200003356344       300003356331                                                                                                                                                                                                  123123456456789789000mensagem retorno segunda apresentacao           </v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D53" t="str">
         <f>CONCATENATE(B20)</f>
-        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190505000001120190505080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
+        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190505000001220190505080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D54" t="str">
         <f>CONCATENATE(B42)</f>
-        <v xml:space="preserve">010010000000000100000010001000000000000100010012teste segunda apresentacao master mhj                                                               00000002009869860N0000001943672019040100000000000000000000200003356423       300003356422                                                                                                                                                                                                  191234567890123456700mensagem retorno segunda apresentacao           </v>
+        <v xml:space="preserve">010010000000000100000010001000000000000100010012teste segunda apresentacao master mhj                                                               00000002009869860N0000001943842019040100000000000000000000200003356344       300003356331                                                                                                                                                                                                  123123456456789789000mensagem retorno segunda apresentacao           </v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" ref="C58:C63" si="7">LEN(B58)</f>
